--- a/Administratie/Planning/Uren verantwoording.xlsx
+++ b/Administratie/Planning/Uren verantwoording.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht.sharepoint.com/sites/tekteamone/Gedeelde  documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Documents/TekTeamOne/Administratie/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="435" windowWidth="33600" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="Uren verantwoording" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,20 @@
     <sheet name="Dag indeling" sheetId="5" r:id="rId4"/>
     <sheet name="Opties" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
   <si>
     <t>Taak</t>
   </si>
@@ -226,12 +229,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,28 +348,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -381,7 +384,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -393,10 +396,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -405,7 +408,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -423,7 +426,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -435,7 +438,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -444,7 +447,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,7 +462,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,13 +471,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,121 +485,121 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -713,8 +716,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="42">
     <dxf>
@@ -1412,24 +1415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
         <v>42668</v>
@@ -2449,7 +2452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>24</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3">
         <v>42668</v>
@@ -2466,7 +2469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2534,54 +2537,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3">
-        <v>42668</v>
+        <v>42662</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3">
-        <v>42668</v>
-      </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-      <c r="D68" s="3">
-        <v>42662</v>
-      </c>
-      <c r="E68" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2590,7 +2559,7 @@
     <sortCondition ref="B2:B55"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>42614</formula1>
       <formula2>42923</formula2>
     </dataValidation>
@@ -2600,29 +2569,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Taken!$D$3:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B4918:B1048576</xm:sqref>
+          <xm:sqref>B4916:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Taken!$A$3:$A$44</xm:f>
           </x14:formula1>
-          <xm:sqref>A4686:A1048576</xm:sqref>
+          <xm:sqref>A4684:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4917</xm:sqref>
+          <xm:sqref>B2:B4915</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4685</xm:sqref>
+          <xm:sqref>A2:A4683</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2631,24 +2600,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2659,14 +2628,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +2644,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2684,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2693,7 +2662,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -2702,7 +2671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1">
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2711,7 +2680,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2720,7 +2689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2729,14 +2698,14 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -2760,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2772,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -2784,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -2796,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -2808,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2820,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -2832,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2844,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -2856,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
@@ -2868,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -2877,7 +2846,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2896,22 +2865,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J20" sqref="J18:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="28.5">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="37" t="s">
         <v>19</v>
@@ -2930,7 +2899,7 @@
       </c>
       <c r="I1" s="38"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
@@ -2943,7 +2912,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="26.25">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
@@ -2972,7 +2941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -3005,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -3038,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -3071,7 +3040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -3137,7 +3106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3139,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
@@ -3207,7 +3176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>54</v>
       </c>
@@ -3220,7 +3189,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:11" ht="26.25">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
@@ -3249,7 +3218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
@@ -3282,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
@@ -3315,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>29</v>
       </c>
@@ -3355,7 +3324,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>39</v>
       </c>
@@ -3395,7 +3364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>46</v>
       </c>
@@ -3435,7 +3404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>45</v>
       </c>
@@ -3475,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>47</v>
       </c>
@@ -3515,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>44</v>
       </c>
@@ -3555,7 +3524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>40</v>
       </c>
@@ -3595,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
@@ -3635,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>38</v>
       </c>
@@ -3675,7 +3644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
@@ -3712,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" thickBot="1">
+    <row r="25" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>56</v>
       </c>
@@ -3725,7 +3694,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:11" ht="26.25">
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
@@ -3754,7 +3723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
@@ -3790,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>47</v>
       </c>
@@ -3826,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +3831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>39</v>
       </c>
@@ -3898,7 +3867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>42</v>
       </c>
@@ -3934,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
@@ -3967,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -4000,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="27" thickBot="1">
+    <row r="35" spans="1:10" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>58</v>
       </c>
@@ -4050,7 +4019,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:10" ht="26.25">
+    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
@@ -4079,7 +4048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
@@ -4115,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
@@ -4151,7 +4120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>39</v>
       </c>
@@ -4187,7 +4156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
@@ -4223,7 +4192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
@@ -4259,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>43</v>
       </c>
@@ -4295,7 +4264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>59</v>
       </c>
@@ -4331,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27" thickBot="1">
+    <row r="44" spans="1:10" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>60</v>
       </c>
@@ -4344,7 +4313,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:10" ht="26.25">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>50</v>
       </c>
@@ -4373,7 +4342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1">
+    <row r="46" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>61</v>
       </c>
@@ -4410,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +4523,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
@@ -4567,43 +4536,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -4685,7 +4654,7 @@
       </c>
       <c r="AN1" s="39"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4774,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4968,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5063,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -5148,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5239,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5324,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5411,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5500,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -5589,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5678,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <f>SUM(C2:C12)</f>
         <v>32</v>
@@ -5832,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -5872,7 +5841,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5912,7 +5881,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -5952,7 +5921,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="3:40">
+    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5992,7 +5961,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="3:40">
+    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6034,6 +6003,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -6046,13 +6022,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
@@ -6180,19 +6149,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6200,7 +6169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6208,7 +6177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6216,7 +6185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -6224,67 +6193,67 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>

--- a/Administratie/Planning/Uren verantwoording.xlsx
+++ b/Administratie/Planning/Uren verantwoording.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Documents/TekTeamOne/Administratie/Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht.sharepoint.com/sites/tekteamone/Gedeelde  documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="7_{8F492140-3DC6-421A-86DF-53F185B28202}" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740"/>
+    <workbookView xWindow="9000" yWindow="435" windowWidth="33600" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Uren verantwoording" sheetId="1" r:id="rId1"/>
+    <sheet name="Urenverantwoording" sheetId="1" r:id="rId1"/>
     <sheet name="Taken" sheetId="2" r:id="rId2"/>
-    <sheet name="Week overzicht" sheetId="3" r:id="rId3"/>
-    <sheet name="Dag indeling" sheetId="5" r:id="rId4"/>
+    <sheet name="Weekoverzicht" sheetId="3" r:id="rId3"/>
+    <sheet name="Dagindeling" sheetId="5" r:id="rId4"/>
     <sheet name="Opties" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="72">
   <si>
     <t>Taak</t>
   </si>
@@ -132,6 +130,30 @@
     <t>Bijschaven Requirements</t>
   </si>
   <si>
+    <t>Planning met Marten Wensink bespreken</t>
+  </si>
+  <si>
+    <t>Requirements Analyse met Marten Wensink bespreken</t>
+  </si>
+  <si>
+    <t>Requirements Analyse aanpassen conform de eisen van Marten Wensink</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Nul-versie ontvangen testen</t>
+  </si>
+  <si>
+    <t>Planning aanpassen conform de eisen van Marten Wensink</t>
+  </si>
+  <si>
+    <t>Software Architecture Solution</t>
+  </si>
+  <si>
+    <t>Bestuderen software architecture en opzet eigen software architecture</t>
+  </si>
+  <si>
     <t>Gepland</t>
   </si>
   <si>
@@ -145,12 +167,6 @@
   </si>
   <si>
     <t>Projectweken</t>
-  </si>
-  <si>
-    <t>Software Architecture Solution</t>
-  </si>
-  <si>
-    <t>Testen</t>
   </si>
   <si>
     <t>Code documentatie</t>
@@ -178,6 +194,12 @@
   </si>
   <si>
     <t>Onverwacht</t>
+  </si>
+  <si>
+    <t>Totaal gepland</t>
+  </si>
+  <si>
+    <t>Totaal ingepland</t>
   </si>
   <si>
     <t>Pre-Project weken</t>
@@ -229,12 +251,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +283,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="0"/>
@@ -287,6 +304,11 @@
     <font>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -348,28 +370,28 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -384,7 +406,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -396,10 +418,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -408,7 +430,7 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -426,7 +448,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -438,7 +460,7 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -447,7 +469,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +484,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,13 +493,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,129 +507,129 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -615,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -687,28 +709,33 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -716,10 +743,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -957,6 +984,206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1415,24 +1642,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1585,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1670,7 +1897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +1965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +2016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +2101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1891,7 +2118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +2169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +2186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +2203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2061,7 +2288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2180,7 +2407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2231,7 +2458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2248,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2265,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2282,7 +2509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2299,7 +2526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2350,7 +2577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2384,7 +2611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2418,7 +2645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2452,7 +2679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2469,7 +2696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2486,7 +2713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2503,7 +2730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2520,7 +2747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2552,6 +2779,210 @@
       </c>
       <c r="E66" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>1.5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>1.5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>42667</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2990,7 @@
     <sortCondition ref="B2:B55"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>42614</formula1>
       <formula2>42923</formula2>
     </dataValidation>
@@ -2569,25 +3000,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Taken!$D$3:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>B4916:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Taken!$A$3:$A$44</xm:f>
           </x14:formula1>
           <xm:sqref>A4684:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Opties!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B4915</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
@@ -2600,124 +3031,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A3,'Uren verantwoording'!C2:C1048576)</f>
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A3,Urenverantwoording!C2:C1048576)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A4,'Uren verantwoording'!C2:C1048576)</f>
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A4,Urenverantwoording!C2:C1048576)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A5,'Uren verantwoording'!C2:C1048576)</f>
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A5,Urenverantwoording!C2:C1048576)</f>
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A6,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A6,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A7,'Uren verantwoording'!C2:C1048576)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A7,Urenverantwoording!C2:C1048576)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A8,'Uren verantwoording'!C2:C1048576)</f>
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A8,Urenverantwoording!C2:C1048576)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(C3:C8)</f>
-        <v>147.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1">
+      <c r="A10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>38</v>
       </c>
       <c r="C11" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A11,'Uren verantwoording'!C2:C1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A11,Urenverantwoording!C2:C1048576)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -2725,130 +3156,130 @@
         <v>128</v>
       </c>
       <c r="C12" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A12,'Uren verantwoording'!C2:C1048576)</f>
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A12,Urenverantwoording!C2:C1048576)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>38</v>
       </c>
       <c r="C13" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A13,'Uren verantwoording'!C2:C1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A13,Urenverantwoording!C2:C1048576)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <f>SUMIF('Uren verantwoording'!A2:A1048576,Taken!A14,'Uren verantwoording'!C2:C1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A14,Urenverantwoording!C2:C1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A15,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A15,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>17</v>
       </c>
       <c r="C16" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A16,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A16,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A17,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A17,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A18,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A18,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A19,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A19,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A20,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A20,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" s="5">
-        <f>SUMIF('Uren verantwoording'!$A$2:$A$1048576,Taken!A21,'Uren verantwoording'!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A21,Urenverantwoording!$C$2:$C$1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <f>SUM(B11:B22)</f>
@@ -2856,92 +3287,104 @@
       </c>
       <c r="C23">
         <f>SUM(C11:C21)</f>
-        <v>23</v>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J20" sqref="J18:J20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="28.5">
       <c r="A1" s="30"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="I1" s="39"/>
+      <c r="J1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" thickBot="1">
+      <c r="A2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.25">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -2949,32 +3392,32 @@
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A4,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A4,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>14</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A4,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A4,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>4</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A4,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A4,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>27</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A4,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A4,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -2982,32 +3425,32 @@
         <v>0</v>
       </c>
       <c r="C5" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A5,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A5,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>0</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A5,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A5,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>7</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A5,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A5,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>0</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
       </c>
       <c r="I5" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A5,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A5,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -3015,32 +3458,32 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A6,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A6,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>4</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A6,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A6,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>10.5</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A6,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A6,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>4.5</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A6,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A6,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -3048,32 +3491,32 @@
         <v>0</v>
       </c>
       <c r="C7" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A7,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A7,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>8</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A7,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A7,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>8</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A7,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A7,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>8</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A7,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A7,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -3081,32 +3524,32 @@
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A8,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A8,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>7.5</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A8,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A8,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>5.5</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A8,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A8,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>4.5</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A8,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A8,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -3114,34 +3557,34 @@
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A9,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A9,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A9,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A9,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>1</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A9,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A9,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>1</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A9,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A9,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,24))</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17">
         <f>SUM(B4:B9)</f>
@@ -3176,307 +3619,304 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
+      <c r="A11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.25">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A13,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A13,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A13,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A13,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A14,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A14,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A14,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A14,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A15,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A15,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A15,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A15,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A16,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="9">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A16,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A16,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>9</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8</v>
+      </c>
+      <c r="I16" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A16,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="8">
+        <f>SUM(Dagindeling!C3,Dagindeling!E3,Dagindeling!G3,Dagindeling!I3,Dagindeling!K3)</f>
+        <v>64</v>
+      </c>
+      <c r="K16" s="8">
+        <f>SUM(B16,D16,F16,H16)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A17,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A17,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A17,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+      <c r="I17" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A17,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="8">
+        <f>SUM(Dagindeling!C4,Dagindeling!E4,Dagindeling!G4,Dagindeling!I4,Dagindeling!K4)</f>
+        <v>16</v>
+      </c>
+      <c r="K17" s="8">
+        <f>SUM(B17,D17,F17,H17)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8</v>
+      </c>
+      <c r="I18" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <f>SUM(Dagindeling!C11,Dagindeling!E11,Dagindeling!G11,Dagindeling!I11,Dagindeling!K11)</f>
+        <v>18</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" ref="K18:K44" si="1">SUM(B18,D18,F18,H18)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A13,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A13,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A13,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A13,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A14,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A14,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A14,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A14,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A15,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>9</v>
-      </c>
-      <c r="D15" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A15,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A15,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>9</v>
-      </c>
-      <c r="H15" s="9">
-        <v>8</v>
-      </c>
-      <c r="I15" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A15,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>64</v>
-      </c>
-      <c r="K15" s="8">
-        <f>SUM(B15,D15,F15,H15)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A16,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A16,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>3</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A16,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>5</v>
-      </c>
-      <c r="I16" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A16,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>16</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" ref="K16:K23" si="1">SUM(B16,D16,F16,H16)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A17,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A17,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A17,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>7</v>
-      </c>
-      <c r="I17" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A17,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A18,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A18,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A18,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I18" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A18,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="B19" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A19,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A19,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A19,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A19,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="F19" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A19,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A19,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A19,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A19,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f>SUM(Dagindeling!C10,Dagindeling!E10,Dagindeling!G10,Dagindeling!I10,Dagindeling!K10)</f>
         <v>3</v>
       </c>
       <c r="K19" s="8">
@@ -3484,119 +3924,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>44</v>
+    <row r="20" spans="1:11">
+      <c r="A20" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A20,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A20,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="E20" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A20,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A20,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A20,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f>SUM(Dagindeling!C12,Dagindeling!E12,Dagindeling!G12,Dagindeling!I12,Dagindeling!K12)</f>
         <v>3</v>
-      </c>
-      <c r="E20" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A20,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A20,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3</v>
-      </c>
-      <c r="I20" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A20,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A21,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="D21" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A21,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A21,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A21,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f>SUM(Dagindeling!C9,Dagindeling!E9,Dagindeling!G9,Dagindeling!I9,Dagindeling!K9)</f>
+        <v>8</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A22,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A22,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A22,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A22,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A22,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A22,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A22,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A22,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f>SUM(Dagindeling!C5,Dagindeling!E5,Dagindeling!G5,Dagindeling!I5,Dagindeling!K5)</f>
         <v>4</v>
       </c>
       <c r="K22" s="8">
@@ -3604,918 +4047,1152 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>38</v>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="9">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C23" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A23,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A23,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A23,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A23,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="F23" s="9">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G23" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A23,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A23,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="I23" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A23,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>38</v>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A23,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <f>SUM(Dagindeling!C7,Dagindeling!E7,Dagindeling!G7,Dagindeling!I7,Dagindeling!K7)</f>
+        <v>4</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>11</v>
+      </c>
+      <c r="I24" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f>SUM(Dagindeling!C2,Dagindeling!E2,Dagindeling!G2,Dagindeling!I2,Dagindeling!K2)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="17">
-        <f>SUM(B13:B23)</f>
+      <c r="K24" s="8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="17">
+        <f>SUM(B13:B24)</f>
         <v>40</v>
       </c>
-      <c r="C24" s="9">
-        <f t="shared" ref="C24:I24" si="2">SUM(C13:C23)</f>
+      <c r="C25" s="9">
+        <f>SUM(C13:C24)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D25" s="17">
+        <f>SUM(D13:D24)</f>
+        <v>39</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(E13:E24)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="17">
+        <f>SUM(F13:F24)</f>
+        <v>40</v>
+      </c>
+      <c r="G25" s="9">
+        <f>SUM(G13:G24)</f>
         <v>9</v>
       </c>
-      <c r="D24" s="17">
-        <f t="shared" si="2"/>
+      <c r="H25" s="17">
+        <f>SUM(H13:H24)</f>
         <v>39</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="2"/>
+      <c r="I25" s="9">
+        <f>SUM(I13:I24)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J25" s="8">
+        <f>SUM(J16:J24)</f>
+        <v>158</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27" thickBot="1">
+      <c r="A26" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.25">
+      <c r="A27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A28,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A28,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A28,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A28,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <f>SUM(Dagindeling!Q10,Dagindeling!S10)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A29,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A29,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A29,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A29,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <f>SUM(Dagindeling!Q12,Dagindeling!S12)</f>
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A30,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A30,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A30,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>10</v>
+      </c>
+      <c r="I30" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A30,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <f>SUM(Dagindeling!Q3,Dagindeling!S3)</f>
         <v>40</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A27,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A27,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A27,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A27,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A28,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A28,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A28,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A28,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="9">
-        <v>0</v>
-      </c>
-      <c r="C29" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A29,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A29,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A29,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A29,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="K30" s="8">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A30,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A30,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A30,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A30,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>42</v>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A31,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A31,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
         <v>0</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A31,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A31,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
         <v>0</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
       <c r="G31" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A31,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A31,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
         <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A31,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="J31">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A31,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <f>SUM(Dagindeling!Q4,Dagindeling!S4)</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A32,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A32,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A32,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A32,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <f>SUM(Dagindeling!Q7,Dagindeling!S7)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="K32" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A33,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A33,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A33,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A33,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <f>SUM(Dagindeling!Q5,Dagindeling!S5)</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A34,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A34,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A34,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A34,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" ref="B35:I35" si="2">SUM(B27:B34)</f>
+        <v>14.5</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <f>SUM(J28:J33)</f>
+        <v>57</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27" thickBot="1">
+      <c r="A36" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="26.25">
+      <c r="A37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A32,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C38" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A28,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
         <v>2</v>
       </c>
-      <c r="E32" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A32,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E38" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,C28,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A32,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="G38" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,E28,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
         <v>2</v>
       </c>
-      <c r="I32" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A32,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="I38" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,G28,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <f>SUM(Dagindeling!AE7,Dagindeling!AG7,Dagindeling!AI7,Dagindeling!AK7,Dagindeling!AM7)</f>
         <v>8</v>
       </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A33,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A33,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A33,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A33,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,31),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" ref="B34:I34" si="3">SUM(B26:B33)</f>
+      <c r="K38" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="9">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C39" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,#REF!,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,#REF!,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,#REF!,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>4</v>
+      </c>
+      <c r="I39" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,#REF!,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <f>SUM(Dagindeling!AE6,Dagindeling!AG6,Dagindeling!AI6,Dagindeling!AK6,Dagindeling!AM6)</f>
+        <v>14</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A29,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,C29,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5</v>
+      </c>
+      <c r="G40" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,E29,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>4</v>
+      </c>
+      <c r="I40" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,G29,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <f>SUM(Dagindeling!AE4,Dagindeling!AG4,Dagindeling!AI4,Dagindeling!AK4,Dagindeling!AM4)</f>
+        <v>18</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A30,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,C30,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7</v>
+      </c>
+      <c r="G41" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,E30,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>5</v>
+      </c>
+      <c r="I41" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,G30,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <f>SUM(Dagindeling!AE3,Dagindeling!AG3,Dagindeling!AI3,Dagindeling!AK3,Dagindeling!AM3)</f>
+        <v>24</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A31,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,C31,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,E31,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,G31,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <f>SUM(Dagindeling!AE5,Dagindeling!AG5,Dagindeling!AI5,Dagindeling!AK5,Dagindeling!AM5)</f>
+        <v>7</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="9">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A34,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,C34,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>3</v>
+      </c>
+      <c r="G43" s="9">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,E34,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>4</v>
+      </c>
+      <c r="I43" s="15">
+        <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,G34,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <f>SUM(Dagindeling!AE8,Dagindeling!AG8,Dagindeling!AI8,Dagindeling!AK8,Dagindeling!AM8)</f>
+        <v>14</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" ref="B44:H44" si="3">SUM(B37:B43)</f>
+        <v>21</v>
+      </c>
+      <c r="C44" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D44" s="17">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E34" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="E44" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F44" s="17">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G34" s="10">
+        <v>21</v>
+      </c>
+      <c r="G44" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H44" s="17">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="I44" s="18">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <f>SUM(J38:J43)</f>
+        <v>85</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="27" thickBot="1">
+      <c r="A45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:11" ht="26.25">
+      <c r="A46" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-    </row>
-    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A27,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,C27,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,E27,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,G27,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,#REF!,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,#REF!,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,#REF!,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,#REF!,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A28,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,C28,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,E28,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,G28,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A29,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,C29,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,E29,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,G29,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A30,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,C30,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,E30,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,G30,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,A33,'Uren verantwoording'!$B$2:$B$1048576,$B$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,C33,'Uren verantwoording'!$B$2:$B$1048576,$D$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,E33,'Uren verantwoording'!$B$2:$B$1048576,$F$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15">
-        <f>SUMIFS('Uren verantwoording'!$C$2:$C$1048576,'Uren verantwoording'!$A$2:$A$1048576,G33,'Uren verantwoording'!$B$2:$B$1048576,$H$1,'Uren verantwoording'!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,11,7),'Uren verantwoording'!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,11,12))</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="B46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="17">
-        <f t="shared" ref="B43:H43" si="4">SUM(B36:B42)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="17">
+      <c r="C46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="25" customFormat="1">
+      <c r="A47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="24">
+        <f t="shared" ref="B47:I47" si="4">SUM(B25,B35,B44)</f>
+        <v>75.5</v>
+      </c>
+      <c r="C47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="D47" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+        <v>74.5</v>
+      </c>
+      <c r="E47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="17">
+        <v>75.5</v>
+      </c>
+      <c r="G47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
+        <v>9</v>
+      </c>
+      <c r="H47" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="24">
-        <f t="shared" ref="B46:I46" si="5">SUM(B24,B34,B43)</f>
-        <v>43</v>
-      </c>
-      <c r="C46" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="27">
+        <f t="shared" ref="B48:I48" si="5">SUM(B47,B10)</f>
+        <v>75.5</v>
+      </c>
+      <c r="C48" s="27">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="D46" s="24">
+        <v>47</v>
+      </c>
+      <c r="D48" s="27">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="E46" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="E48" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="24">
+        <v>39.5</v>
+      </c>
+      <c r="F48" s="27">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="G46" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="G48" s="27">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="H46" s="24">
+        <v>54</v>
+      </c>
+      <c r="H48" s="27">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="I46" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="I48" s="28">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="27">
-        <f t="shared" ref="B47:I47" si="6">SUM(B46,B10)</f>
-        <v>43</v>
-      </c>
-      <c r="C47" s="27">
-        <f t="shared" si="6"/>
-        <v>43.5</v>
-      </c>
-      <c r="D47" s="27">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="E47" s="27">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="F47" s="27">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="G47" s="27">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="H47" s="27">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="I47" s="28">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
+        <v>40.5</v>
+      </c>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A45:I45"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C37:C42 E37:E42 G37:G42 I37:I42 I13:I23 G13:G23 C13:C23 C27:C33 E27:E33 G27:G33 I27:I33">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="lessThan">
-      <formula>B13</formula>
+  <conditionalFormatting sqref="C38:C43 E38:E43 G38:G43 I38:I43 I14:I24 G14:G24 C14:C24 C28:C34 E28:E34 G28:G34 I28:I34">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="lessThan">
+      <formula>B14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E23">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="lessThan">
+  <conditionalFormatting sqref="E14:E24">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="lessThan">
+      <formula>D14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="lessThan">
+      <formula>F35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="lessThan">
+      <formula>D35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="lessThan">
+      <formula>B35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="lessThan">
+      <formula>B44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="lessThan">
+      <formula>D44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="lessThan">
+      <formula>F44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="lessThan">
+      <formula>H44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="lessThan">
+      <formula>H47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="lessThan">
+      <formula>F47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="lessThan">
+      <formula>D47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="lessThan">
+      <formula>B47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="lessThan">
+      <formula>B25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="lessThan">
+      <formula>D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="lessThan">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="greaterThan">
+      <formula>J16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="lessThan">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="lessThan">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="lessThan">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="lessThan">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="lessThan">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K25">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="greaterThan">
+      <formula>J17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
+      <formula>J34</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
+      <formula>J33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K44">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+      <formula>J38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>D13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="lessThan">
-      <formula>H34</formula>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
+      <formula>F13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="lessThan">
-      <formula>F34</formula>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
+      <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
-      <formula>D34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="lessThan">
-      <formula>B34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
-      <formula>B43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
-      <formula>D43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
-      <formula>F43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThan">
-      <formula>H43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
-      <formula>H46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
-      <formula>F46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
-      <formula>D46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
-      <formula>B46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
-      <formula>B24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
-      <formula>D24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
-      <formula>H24</formula>
+      <formula>B13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4523,11 +5200,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A9 A13:A23 A37:A42 A27:A33</xm:sqref>
+          <xm:sqref>A4:A9 A14:A24 A38:A43 A28:A34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4536,127 +5213,129 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S19" sqref="S19"/>
+      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="39">
+        <v>71</v>
+      </c>
+      <c r="C1" s="40">
         <f>DATE(2016,10,24)</f>
         <v>42667</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40">
         <v>42668</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40">
         <v>42669</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40">
         <v>42670</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40">
         <v>42671</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40">
         <v>42672</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40">
         <v>42673</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40">
         <v>42674</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40">
         <v>42675</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40">
         <v>42676</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40">
         <v>42677</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40">
         <v>42678</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40">
         <v>42679</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40">
         <v>42680</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40">
         <v>42681</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39">
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40">
         <v>42682</v>
       </c>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40">
         <v>42683</v>
       </c>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39">
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40">
         <v>42684</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39">
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40">
         <v>42685</v>
       </c>
-      <c r="AN1" s="39"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN1" s="40"/>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="8">
         <f>SUM(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,AI2,AK2,AM2)</f>
@@ -4743,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4838,9 +5517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
@@ -4937,9 +5616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -5032,9 +5711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -5117,9 +5796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
@@ -5208,9 +5887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
@@ -5293,9 +5972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
@@ -5380,9 +6059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
@@ -5469,9 +6148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
@@ -5558,9 +6237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
@@ -5647,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="C13" s="8">
         <f>SUM(C2:C12)</f>
         <v>32</v>
@@ -5801,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -5841,7 +6520,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5881,7 +6560,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -5921,7 +6600,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:40">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5961,7 +6640,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:40">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6003,13 +6682,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -6022,6 +6694,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
@@ -6149,19 +6828,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6169,7 +6848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6177,7 +6856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6185,7 +6864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -6193,69 +6872,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6264,6 +6943,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005482E0FAFE580A4A90AE260043697E6F" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8fb62b114feff957bfd4cb8ec2a11fe0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15ce71b8-92b5-4d42-93e0-fad89e64317b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c03c8688e14a8719cdd4030430179e" ns2:_="">
     <xsd:import namespace="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
@@ -6411,15 +7099,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6427,6 +7106,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6977DBE9-86C5-4B1D-9467-ED716483E7B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7FAFC9-5EB2-4A2F-B287-EE9BC5B15562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6440,14 +7127,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6977DBE9-86C5-4B1D-9467-ED716483E7B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Administratie/Planning/Uren verantwoording.xlsx
+++ b/Administratie/Planning/Uren verantwoording.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht.sharepoint.com/sites/tekteamone/Gedeelde  documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Documents/TekTeamOne/Administratie/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="7_{8F492140-3DC6-421A-86DF-53F185B28202}" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="435" windowWidth="33600" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="Urenverantwoording" sheetId="1" r:id="rId1"/>
@@ -19,17 +18,20 @@
     <sheet name="Dagindeling" sheetId="5" r:id="rId4"/>
     <sheet name="Opties" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="79">
   <si>
     <t>Taak</t>
   </si>
@@ -154,6 +156,18 @@
     <t>Bestuderen software architecture en opzet eigen software architecture</t>
   </si>
   <si>
+    <t>STD's maken</t>
+  </si>
+  <si>
+    <t>Objectlijst maken</t>
+  </si>
+  <si>
+    <t>Opmaak &amp; Indeling</t>
+  </si>
+  <si>
+    <t>Opzet onderzoek</t>
+  </si>
+  <si>
     <t>Gepland</t>
   </si>
   <si>
@@ -179,9 +193,6 @@
   </si>
   <si>
     <t>Presentatie</t>
-  </si>
-  <si>
-    <t>Opmaak &amp; Indeling</t>
   </si>
   <si>
     <t>Bronvermelding</t>
@@ -246,17 +257,29 @@
   </si>
   <si>
     <t>Onderdeel</t>
+  </si>
+  <si>
+    <t>STD's afmaken</t>
+  </si>
+  <si>
+    <t>Bedenken welke RTOS'en er gebruikt gaan worden</t>
+  </si>
+  <si>
+    <t>Administratie van de afgelopen tijd samengevoegd tot totale tijd</t>
+  </si>
+  <si>
+    <t>STD's samenvoegen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,28 +393,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -406,7 +429,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -418,10 +441,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -430,7 +453,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -448,7 +471,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -460,7 +483,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -469,7 +492,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +507,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,13 +516,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,121 +530,121 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -714,10 +737,10 @@
     <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -743,8 +766,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="62">
     <dxf>
@@ -1642,24 +1665,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1795,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +2005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +2039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2101,7 +2124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2118,7 +2141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2186,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2322,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2339,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2373,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2407,7 +2430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2424,7 +2447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2475,7 +2498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +2549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2577,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2594,7 +2617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2611,7 +2634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2662,7 +2685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2679,7 +2702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +2770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2764,7 +2787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2781,7 +2804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2798,7 +2821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2815,7 +2838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -2832,7 +2855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -2849,7 +2872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +2906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2900,7 +2923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -2917,7 +2940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -2934,7 +2957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2951,7 +2974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2968,7 +2991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2983,6 +3006,278 @@
       </c>
       <c r="E78" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>42668</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>2.5</v>
+      </c>
+      <c r="D88" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>4.5</v>
+      </c>
+      <c r="D89" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>4.5</v>
+      </c>
+      <c r="D90" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>42669</v>
+      </c>
+      <c r="E92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>42670</v>
+      </c>
+      <c r="E93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="3">
+        <v>42670</v>
+      </c>
+      <c r="E94" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2990,7 +3285,7 @@
     <sortCondition ref="B2:B55"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>42614</formula1>
       <formula2>42923</formula2>
     </dataValidation>
@@ -3000,25 +3295,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Taken!$D$3:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>B4916:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Taken!$A$3:$A$44</xm:f>
           </x14:formula1>
           <xm:sqref>A4684:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B4915</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
@@ -3031,51 +3326,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A3,Urenverantwoording!C2:C1048576)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +3388,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -3102,7 +3397,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1">
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3111,7 +3406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -3120,23 +3415,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(C3:C8)</f>
-        <v>152.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -3145,10 +3440,10 @@
       </c>
       <c r="C11" s="5">
         <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A11,Urenverantwoording!C2:C1048576)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3160,7 +3455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -3172,9 +3467,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -3184,9 +3479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3196,9 +3491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -3208,9 +3503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3220,21 +3515,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" s="5">
         <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A18,Urenverantwoording!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3244,21 +3539,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" s="5">
         <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A20,Urenverantwoording!$C$2:$C$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -3268,18 +3563,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <f>SUM(B11:B22)</f>
@@ -3287,7 +3582,7 @@
       </c>
       <c r="C23">
         <f>SUM(C11:C21)</f>
-        <v>28.5</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3300,24 +3595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="28.5">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="38" t="s">
         <v>19</v>
@@ -3336,15 +3631,15 @@
       </c>
       <c r="I1" s="39"/>
       <c r="J1" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3355,36 +3650,36 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="26.25">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -3417,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -3450,7 +3745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -3483,7 +3778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -3582,9 +3877,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="17">
         <f>SUM(B4:B9)</f>
@@ -3619,9 +3914,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3632,37 +3927,37 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:11" ht="26.25">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="9">
@@ -3694,7 +3989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -3727,7 +4022,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -3743,7 +4038,7 @@
       </c>
       <c r="E15" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A15,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -3760,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -3801,7 +4096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -3842,16 +4137,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="9">
         <v>8</v>
@@ -3865,7 +4160,7 @@
       </c>
       <c r="G18" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9">
         <v>8</v>
@@ -3883,9 +4178,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -3924,9 +4219,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" s="9">
         <v>0.5</v>
@@ -3965,37 +4260,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="E21" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="9">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A21,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="8">
         <f>SUM(Dagindeling!C9,Dagindeling!E9,Dagindeling!G9,Dagindeling!I9,Dagindeling!K9)</f>
@@ -4006,9 +4301,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -4047,9 +4342,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B23" s="9">
         <v>1.5</v>
@@ -4088,7 +4383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -4097,28 +4392,28 @@
       </c>
       <c r="C24" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$B$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="D24" s="9">
         <v>11</v>
       </c>
       <c r="E24" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F24" s="9">
         <v>8</v>
       </c>
       <c r="G24" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$F$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H24" s="9">
         <v>11</v>
       </c>
       <c r="I24" s="15">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$H$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J24" s="8">
         <f>SUM(Dagindeling!C2,Dagindeling!E2,Dagindeling!G2,Dagindeling!I2,Dagindeling!K2)</f>
@@ -4129,41 +4424,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="17">
-        <f>SUM(B13:B24)</f>
+        <f t="shared" ref="B25:I25" si="2">SUM(B13:B24)</f>
         <v>40</v>
       </c>
       <c r="C25" s="9">
-        <f>SUM(C13:C24)</f>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="D25" s="17">
-        <f>SUM(D13:D24)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="E25" s="9">
-        <f>SUM(E13:E24)</f>
-        <v>3.5</v>
+        <f t="shared" si="2"/>
+        <v>16.5</v>
       </c>
       <c r="F25" s="17">
-        <f>SUM(F13:F24)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G25" s="9">
-        <f>SUM(G13:G24)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>22.5</v>
       </c>
       <c r="H25" s="17">
-        <f>SUM(H13:H24)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I25" s="9">
-        <f>SUM(I13:I24)</f>
-        <v>8.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J25" s="8">
         <f>SUM(J16:J24)</f>
@@ -4174,9 +4469,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27" thickBot="1">
+    <row r="26" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4188,39 +4483,39 @@
       <c r="I26" s="36"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="26.25">
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
@@ -4259,9 +4554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -4300,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -4341,7 +4636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -4382,9 +4677,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9">
         <v>1.5</v>
@@ -4423,9 +4718,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -4464,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -4504,40 +4799,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" ref="B35:I35" si="2">SUM(B27:B34)</f>
+        <f t="shared" ref="B35:I35" si="3">SUM(B27:B34)</f>
         <v>14.5</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="8">
@@ -4549,9 +4844,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27" thickBot="1">
+    <row r="36" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -4563,39 +4858,39 @@
       <c r="I36" s="37"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="26.25">
+    <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" s="9">
         <v>2</v>
@@ -4634,9 +4929,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9">
         <v>3</v>
@@ -4675,7 +4970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4716,7 +5011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -4757,9 +5052,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
@@ -4798,9 +5093,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43" s="9">
         <v>3</v>
@@ -4839,36 +5134,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B44" s="17">
-        <f t="shared" ref="B44:H44" si="3">SUM(B37:B43)</f>
+        <f t="shared" ref="B44:H44" si="4">SUM(B37:B43)</f>
         <v>21</v>
       </c>
       <c r="C44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
       <c r="I44" s="18">
@@ -4883,9 +5178,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27" thickBot="1">
+    <row r="45" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -4896,112 +5191,112 @@
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
     </row>
-    <row r="46" spans="1:11" ht="26.25">
+    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="25" customFormat="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B47" s="24">
-        <f t="shared" ref="B47:I47" si="4">SUM(B25,B35,B44)</f>
+        <f t="shared" ref="B47:I47" si="5">SUM(B25,B35,B44)</f>
         <v>75.5</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="D47" s="24">
-        <f t="shared" si="4"/>
-        <v>74.5</v>
-      </c>
-      <c r="E47" s="10">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="F47" s="24">
-        <f t="shared" si="4"/>
-        <v>75.5</v>
-      </c>
-      <c r="G47" s="10">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H47" s="24">
-        <f t="shared" si="4"/>
-        <v>74.5</v>
-      </c>
-      <c r="I47" s="10">
-        <f t="shared" si="4"/>
-        <v>8.5</v>
-      </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:11" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="27">
-        <f t="shared" ref="B48:I48" si="5">SUM(B47,B10)</f>
-        <v>75.5</v>
-      </c>
-      <c r="C48" s="27">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="D48" s="27">
         <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E47" s="10">
         <f t="shared" si="5"/>
-        <v>39.5</v>
-      </c>
-      <c r="F48" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="F47" s="24">
         <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="H48" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="H47" s="24">
         <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
+      <c r="I47" s="10">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+    </row>
+    <row r="48" spans="1:11" s="25" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="27">
+        <f t="shared" ref="B48:I48" si="6">SUM(B47,B10)</f>
+        <v>75.5</v>
+      </c>
+      <c r="C48" s="27">
+        <f t="shared" si="6"/>
+        <v>60.5</v>
+      </c>
+      <c r="D48" s="27">
+        <f t="shared" si="6"/>
+        <v>74.5</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="6"/>
+        <v>52.5</v>
+      </c>
+      <c r="F48" s="27">
+        <f t="shared" si="6"/>
+        <v>75.5</v>
+      </c>
+      <c r="G48" s="27">
+        <f t="shared" si="6"/>
+        <v>67.5</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" si="6"/>
+        <v>74.5</v>
+      </c>
       <c r="I48" s="28">
-        <f t="shared" si="5"/>
-        <v>40.5</v>
-      </c>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5200,7 +5495,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opties!$A$1:$A$17</xm:f>
           </x14:formula1>
@@ -5213,47 +5508,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="30" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="4.5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="40">
         <f>DATE(2016,10,24)</f>
@@ -5333,7 +5628,7 @@
       </c>
       <c r="AN1" s="40"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -5422,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -5517,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5616,9 +5911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -5711,9 +6006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -5796,9 +6091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
@@ -5887,9 +6182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
@@ -5972,9 +6267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
@@ -6059,9 +6354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
@@ -6148,9 +6443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
@@ -6237,9 +6532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
@@ -6326,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <f>SUM(C2:C12)</f>
         <v>32</v>
@@ -6480,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -6520,7 +6815,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6560,7 +6855,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -6600,7 +6895,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="3:40">
+    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -6640,7 +6935,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="3:40">
+    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6682,6 +6977,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -6694,13 +6996,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
@@ -6828,19 +7123,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6848,7 +7143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6856,7 +7151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +7159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -6872,69 +7167,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Administratie/Planning/Uren verantwoording.xlsx
+++ b/Administratie/Planning/Uren verantwoording.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="81">
   <si>
     <t>Taak</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>STD's samenvoegen</t>
+  </si>
+  <si>
+    <t>Class diagram maken</t>
+  </si>
+  <si>
+    <t>Inhoud van onderzoek bepalen</t>
   </si>
 </sst>
 </file>
@@ -1666,20 +1672,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,6 +3284,40 @@
       </c>
       <c r="E94" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>5.5</v>
+      </c>
+      <c r="D95" s="3">
+        <v>42670</v>
+      </c>
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <v>42670</v>
+      </c>
+      <c r="E96" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3480,7 @@
       </c>
       <c r="C11" s="5">
         <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A11,Urenverantwoording!C2:C1048576)</f>
-        <v>41.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3548,7 +3588,7 @@
       </c>
       <c r="C20" s="5">
         <f>SUMIF(Urenverantwoording!$A$2:$A$1048576,Taken!A20,Urenverantwoording!$C$2:$C$1048576)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3622,7 @@
       </c>
       <c r="C23">
         <f>SUM(C11:C21)</f>
-        <v>77</v>
+        <v>83.5</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4193,7 @@
       </c>
       <c r="E18" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A18,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
@@ -4399,7 +4439,7 @@
       </c>
       <c r="E24" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A24,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="F24" s="9">
         <v>8</v>
@@ -4442,7 +4482,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" si="2"/>
@@ -5238,7 +5278,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" si="5"/>
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="5"/>
@@ -5277,7 +5317,7 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="6"/>
-        <v>52.5</v>
+        <v>59</v>
       </c>
       <c r="F48" s="27">
         <f t="shared" si="6"/>
@@ -6977,13 +7017,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -6996,6 +7029,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">

--- a/Administratie/Planning/Uren verantwoording.xlsx
+++ b/Administratie/Planning/Uren verantwoording.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Urenverantwoording" sheetId="1" r:id="rId1"/>
@@ -1674,9 +1674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2920,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D73" s="3">
         <v>42667</v>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="C7" s="5">
         <f>SUMIF(Urenverantwoording!A2:A1048576,Taken!A7,Urenverantwoording!C2:C1048576)</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(C3:C8)</f>
-        <v>153.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3638,9 +3638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="E13" s="9">
         <f>SUMIFS(Urenverantwoording!$C$2:$C$1048576,Urenverantwoording!$A$2:$A$1048576,A13,Urenverantwoording!$B$2:$B$1048576,$D$1,Urenverantwoording!$D$2:$D$1048576,"&gt;=" &amp; DATE(2016,10,24),Urenverantwoording!$D$2:$D$1048576,"&lt;" &amp; DATE(2016,10,31))</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" si="2"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="5"/>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="F48" s="27">
         <f t="shared" si="6"/>
